--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H2">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J2">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N2">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P2">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q2">
-        <v>0.2997478216504444</v>
+        <v>0.4192365144177778</v>
       </c>
       <c r="R2">
-        <v>2.697730394854</v>
+        <v>3.77312862976</v>
       </c>
       <c r="S2">
-        <v>0.02207386048676771</v>
+        <v>0.0315178524138169</v>
       </c>
       <c r="T2">
-        <v>0.02207386048676771</v>
+        <v>0.0315178524138169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H3">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J3">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.136667</v>
       </c>
       <c r="O3">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P3">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q3">
-        <v>0.06459154235477778</v>
+        <v>0.1412026436551111</v>
       </c>
       <c r="R3">
-        <v>0.581323881193</v>
+        <v>1.270823792896</v>
       </c>
       <c r="S3">
-        <v>0.004756614032135363</v>
+        <v>0.01061549729117262</v>
       </c>
       <c r="T3">
-        <v>0.004756614032135364</v>
+        <v>0.01061549729117262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H4">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J4">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N4">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O4">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P4">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q4">
-        <v>1.623260742997667</v>
+        <v>2.926037783523555</v>
       </c>
       <c r="R4">
-        <v>14.609346686979</v>
+        <v>26.334340051712</v>
       </c>
       <c r="S4">
-        <v>0.1195392546217166</v>
+        <v>0.2199770865532142</v>
       </c>
       <c r="T4">
-        <v>0.1195392546217167</v>
+        <v>0.2199770865532142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.417859666666667</v>
+        <v>3.099562666666667</v>
       </c>
       <c r="H5">
-        <v>4.253579</v>
+        <v>9.298688</v>
       </c>
       <c r="I5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="J5">
-        <v>0.1472651073415806</v>
+        <v>0.2686390288432488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N5">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O5">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P5">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q5">
-        <v>0.01215861926155555</v>
+        <v>0.086840447232</v>
       </c>
       <c r="R5">
-        <v>0.109427573354</v>
+        <v>0.781564025088</v>
       </c>
       <c r="S5">
-        <v>0.0008953782009608343</v>
+        <v>0.006528592585045037</v>
       </c>
       <c r="T5">
-        <v>0.0008953782009608345</v>
+        <v>0.006528592585045036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H6">
         <v>18.569678</v>
       </c>
       <c r="I6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J6">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N6">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P6">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q6">
-        <v>1.308596955469778</v>
+        <v>0.8372242491177777</v>
       </c>
       <c r="R6">
-        <v>11.777372599228</v>
+        <v>7.53501824206</v>
       </c>
       <c r="S6">
-        <v>0.09636696096538931</v>
+        <v>0.06294182260724336</v>
       </c>
       <c r="T6">
-        <v>0.09636696096538934</v>
+        <v>0.06294182260724336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H7">
         <v>18.569678</v>
       </c>
       <c r="I7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J7">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.136667</v>
       </c>
       <c r="O7">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P7">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q7">
-        <v>0.2819846870251112</v>
+        <v>0.2819846870251111</v>
       </c>
       <c r="R7">
-        <v>2.537862183226001</v>
+        <v>2.537862183226</v>
       </c>
       <c r="S7">
-        <v>0.02076575771768559</v>
+        <v>0.02119937420278515</v>
       </c>
       <c r="T7">
-        <v>0.0207657577176856</v>
+        <v>0.02119937420278515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H8">
         <v>18.569678</v>
       </c>
       <c r="I8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J8">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N8">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O8">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P8">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q8">
-        <v>7.086603847608669</v>
+        <v>5.843359778913555</v>
       </c>
       <c r="R8">
-        <v>63.77943462847801</v>
+        <v>52.590238010222</v>
       </c>
       <c r="S8">
-        <v>0.5218676946367495</v>
+        <v>0.439298927404739</v>
       </c>
       <c r="T8">
-        <v>0.5218676946367498</v>
+        <v>0.439298927404739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.189892666666668</v>
+        <v>6.189892666666666</v>
       </c>
       <c r="H9">
         <v>18.569678</v>
       </c>
       <c r="I9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674904</v>
       </c>
       <c r="J9">
-        <v>0.6429093297593833</v>
+        <v>0.5364778626674905</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N9">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O9">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P9">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q9">
-        <v>0.05308039291422223</v>
+        <v>0.173422222842</v>
       </c>
       <c r="R9">
-        <v>0.4777235362280001</v>
+        <v>1.560800005578</v>
       </c>
       <c r="S9">
-        <v>0.003908916439558778</v>
+        <v>0.013037738452723</v>
       </c>
       <c r="T9">
-        <v>0.003908916439558779</v>
+        <v>0.013037738452723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H10">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J10">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N10">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O10">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P10">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q10">
-        <v>0.2131154393022222</v>
+        <v>0.25544357656</v>
       </c>
       <c r="R10">
-        <v>1.91803895372</v>
+        <v>2.29899218904</v>
       </c>
       <c r="S10">
-        <v>0.01569412731285645</v>
+        <v>0.01920403559612796</v>
       </c>
       <c r="T10">
-        <v>0.01569412731285646</v>
+        <v>0.01920403559612796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H11">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J11">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.136667</v>
       </c>
       <c r="O11">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P11">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q11">
-        <v>0.04592345274888889</v>
+        <v>0.086035703176</v>
       </c>
       <c r="R11">
-        <v>0.4133110747400001</v>
+        <v>0.7743213285840002</v>
       </c>
       <c r="S11">
-        <v>0.003381869077373292</v>
+        <v>0.006468092596337877</v>
       </c>
       <c r="T11">
-        <v>0.003381869077373293</v>
+        <v>0.006468092596337878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H12">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J12">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N12">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O12">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P12">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q12">
-        <v>1.154109892913334</v>
+        <v>1.782854142872</v>
       </c>
       <c r="R12">
-        <v>10.38698903622</v>
+        <v>16.045687285848</v>
       </c>
       <c r="S12">
-        <v>0.08499031159691356</v>
+        <v>0.1340334914014801</v>
       </c>
       <c r="T12">
-        <v>0.08499031159691357</v>
+        <v>0.1340334914014801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.008073333333333</v>
+        <v>1.888584</v>
       </c>
       <c r="H13">
-        <v>3.02422</v>
+        <v>5.665752</v>
       </c>
       <c r="I13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="J13">
-        <v>0.1047029061702051</v>
+        <v>0.1636835341659699</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N13">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O13">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P13">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q13">
-        <v>0.008644564857777778</v>
+        <v>0.052912457928</v>
       </c>
       <c r="R13">
-        <v>0.07780108372</v>
+        <v>0.476212121352</v>
       </c>
       <c r="S13">
-        <v>0.0006365981830617873</v>
+        <v>0.003977914572023933</v>
       </c>
       <c r="T13">
-        <v>0.0006365981830617876</v>
+        <v>0.003977914572023933</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H14">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J14">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2114086666666667</v>
+        <v>0.1352566666666667</v>
       </c>
       <c r="N14">
-        <v>0.634226</v>
+        <v>0.40577</v>
       </c>
       <c r="O14">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329269</v>
       </c>
       <c r="P14">
-        <v>0.149891993325802</v>
+        <v>0.1173241749329268</v>
       </c>
       <c r="Q14">
-        <v>0.2139698121937778</v>
+        <v>0.04868987520888889</v>
       </c>
       <c r="R14">
-        <v>1.925728309744</v>
+        <v>0.43820887688</v>
       </c>
       <c r="S14">
-        <v>0.01575704456078851</v>
+        <v>0.003660464315738637</v>
       </c>
       <c r="T14">
-        <v>0.01575704456078851</v>
+        <v>0.003660464315738637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H15">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J15">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.136667</v>
       </c>
       <c r="O15">
-        <v>0.03229966770813146</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="P15">
-        <v>0.03229966770813147</v>
+        <v>0.03951584152489912</v>
       </c>
       <c r="Q15">
-        <v>0.04610755838311111</v>
+        <v>0.01639918962755555</v>
       </c>
       <c r="R15">
-        <v>0.414968025448</v>
+        <v>0.147592706648</v>
       </c>
       <c r="S15">
-        <v>0.003395426880937211</v>
+        <v>0.001232877434603476</v>
       </c>
       <c r="T15">
-        <v>0.003395426880937212</v>
+        <v>0.001232877434603476</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H16">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J16">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.144867</v>
+        <v>0.9440163333333332</v>
       </c>
       <c r="N16">
-        <v>3.434601</v>
+        <v>2.832049</v>
       </c>
       <c r="O16">
-        <v>0.8117282958579322</v>
+        <v>0.8188575111383802</v>
       </c>
       <c r="P16">
-        <v>0.8117282958579324</v>
+        <v>0.8188575111383801</v>
       </c>
       <c r="Q16">
-        <v>1.158736682082667</v>
+        <v>0.3398282583617777</v>
       </c>
       <c r="R16">
-        <v>10.428630138744</v>
+        <v>3.058454325256</v>
       </c>
       <c r="S16">
-        <v>0.08533103500255236</v>
+        <v>0.02554800577894692</v>
       </c>
       <c r="T16">
-        <v>0.08533103500255239</v>
+        <v>0.02554800577894692</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.012114666666667</v>
+        <v>0.3599813333333333</v>
       </c>
       <c r="H17">
-        <v>3.036344</v>
+        <v>1.079944</v>
       </c>
       <c r="I17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329092</v>
       </c>
       <c r="J17">
-        <v>0.105122656728831</v>
+        <v>0.03119957432329093</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.008575333333333332</v>
+        <v>0.028017</v>
       </c>
       <c r="N17">
-        <v>0.025726</v>
+        <v>0.084051</v>
       </c>
       <c r="O17">
-        <v>0.006080043108134296</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="P17">
-        <v>0.006080043108134298</v>
+        <v>0.02430247240379386</v>
       </c>
       <c r="Q17">
-        <v>0.008679220638222221</v>
+        <v>0.010085597016</v>
       </c>
       <c r="R17">
-        <v>0.078112985744</v>
+        <v>0.09077037314400001</v>
       </c>
       <c r="S17">
-        <v>0.0006391502845528962</v>
+        <v>0.0007582267940018933</v>
       </c>
       <c r="T17">
-        <v>0.0006391502845528964</v>
+        <v>0.0007582267940018933</v>
       </c>
     </row>
   </sheetData>
